--- a/report/bond/bond.xlsx
+++ b/report/bond/bond.xlsx
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,17 +420,17 @@
         <v>1713.1699999999837</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(F22:F23)</f>
-        <v>200.46000000000276</v>
+        <f>SUM(F22:F24)</f>
+        <v>480.86000000000058</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G4:G23)</f>
-        <v>34430.429999999978</v>
+        <f>SUM(G4:G24)</f>
+        <v>34710.829999999973</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
-        <f>XIRR(B4:B24,A4:A24)</f>
+        <f>XIRR(B4:B25,A4:A25)</f>
         <v>0.58600277304649373</v>
       </c>
       <c r="C3" s="3">
@@ -446,12 +446,12 @@
         <v>0.12853825688362122</v>
       </c>
       <c r="F3" s="3">
-        <f>XIRR(F22:F23,A22:A23)</f>
-        <v>0.71156989336013821</v>
+        <f>XIRR(F22:F24,A22:A24)</f>
+        <v>0.23071449398994448</v>
       </c>
       <c r="G3" s="3">
-        <f>XIRR(G4:G23,A4:A23)</f>
-        <v>0.18828975558280944</v>
+        <f>XIRR(G4:G24,A4:A24)</f>
+        <v>0.18803424239158631</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -783,28 +783,37 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>DATE(2014,7,31)</f>
-        <v>41851</v>
+        <f>DATE(2014,8,1)</f>
+        <v>41852</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>19550.240000000002</v>
+        <v>-49397.11</v>
       </c>
       <c r="G23" s="2">
         <f>SUM(F23)</f>
-        <v>19550.240000000002</v>
+        <v>-49397.11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>DATE(2014,8,11)</f>
+        <v>41862</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2">
+        <v>69227.75</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM(F24)</f>
+        <v>69227.75</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -957,6 +966,14 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/bond/bond.xlsx
+++ b/report/bond/bond.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="22980" windowHeight="10620"/>
+    <workbookView xWindow="120" yWindow="36" windowWidth="19416" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,23 +366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>122893</v>
       </c>
@@ -398,11 +398,14 @@
       <c r="F1">
         <v>122535</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1">
+        <v>122746</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <f>SUM(B4:B6)</f>
         <v>4121.6299999999756</v>
@@ -421,14 +424,18 @@
       </c>
       <c r="F2" s="2">
         <f>SUM(F22:F24)</f>
-        <v>480.86000000000058</v>
+        <v>748.58999999999651</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G4:G24)</f>
-        <v>34710.829999999973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G25:G27)</f>
+        <v>-49780.42</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(H4:H26)</f>
+        <v>35548.13999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <f>XIRR(B4:B25,A4:A25)</f>
         <v>0.58600277304649373</v>
@@ -447,14 +454,18 @@
       </c>
       <c r="F3" s="3">
         <f>XIRR(F22:F24,A22:A24)</f>
-        <v>0.23071449398994448</v>
-      </c>
-      <c r="G3" s="3">
-        <f>XIRR(G4:G24,A4:A24)</f>
-        <v>0.18803424239158631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1852908194065094</v>
+      </c>
+      <c r="G3" s="3" t="e">
+        <f>XIRR(G25:G27,A25:A27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" s="3">
+        <f>XIRR(H4:H26,A4:A26)</f>
+        <v>0.18973227143287655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f>DATE(2012,9,10)</f>
         <v>41162</v>
@@ -466,12 +477,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <f>SUM(B4:D4)</f>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <f>SUM(B4:G4)</f>
         <v>-19175.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f>DATE(2012,10,8)</f>
         <v>41190</v>
@@ -483,12 +495,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G16" si="0">SUM(B5:D5)</f>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H27" si="0">SUM(B5:G5)</f>
         <v>-172371.20000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f>DATE(2012,10,22)</f>
         <v>41204</v>
@@ -500,12 +513,13 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f>SUM(B6:D6)</f>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
         <v>195668.36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f>DATE(2012,10,22)</f>
         <v>41204</v>
@@ -517,12 +531,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>-206687.91</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>DATE(2012,10,25)</f>
         <v>41207</v>
@@ -534,12 +549,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>SUM(B8:D8)</f>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>-10973.17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>DATE(2012,11,8)</f>
         <v>41221</v>
@@ -551,12 +567,13 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f>SUM(B9:D9)</f>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
         <v>-24270.26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>DATE(2012,12,18)</f>
         <v>41261</v>
@@ -568,12 +585,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>11160.09</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f>DATE(2012,12,21)</f>
         <v>41264</v>
@@ -585,12 +603,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>14347</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>DATE(2012,12,24)</f>
         <v>41267</v>
@@ -602,12 +621,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>-13421.85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>DATE(2013,2,19)</f>
         <v>41324</v>
@@ -619,12 +639,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>-70600.22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f>DATE(2013,5,3)</f>
         <v>41397</v>
@@ -636,13 +657,14 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>-29769.360000000001</v>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f>DATE(2013,5,13)</f>
         <v>41407</v>
@@ -654,13 +676,14 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(B15:G15)</f>
         <v>55002.9</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f>DATE(2013,5,20)</f>
         <v>41414</v>
@@ -672,12 +695,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>53846.71</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f>DATE(2013,6,17)</f>
         <v>41442</v>
@@ -691,12 +715,13 @@
         <v>-15483.9</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <f>SUM(B17:E17)</f>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>204224.48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f>DATE(2013,6,18)</f>
         <v>41443</v>
@@ -708,12 +733,13 @@
         <v>-213976</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <f>SUM(B18:E18)</f>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
         <v>-213976</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f>DATE(2013,6,24)</f>
         <v>41449</v>
@@ -725,12 +751,13 @@
         <v>-189170.99</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:G21" si="1">SUM(B19:E19)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>-189170.99</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f>DATE(2013,6,28)</f>
         <v>41453</v>
@@ -742,12 +769,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
         <v>30052.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f>DATE(2013,7,3)</f>
         <v>41458</v>
@@ -759,12 +787,13 @@
         <v>420344.06</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
         <v>420344.06</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f>DATE(2014,7,24)</f>
         <v>41844</v>
@@ -776,12 +805,13 @@
       <c r="F22" s="2">
         <v>-19349.78</v>
       </c>
-      <c r="G22" s="2">
-        <f>SUM(F22)</f>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
         <v>-19349.78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
@@ -793,187 +823,236 @@
       <c r="F23" s="2">
         <v>-49397.11</v>
       </c>
-      <c r="G23" s="2">
-        <f>SUM(F23)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
         <v>-49397.11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f>DATE(2014,8,11)</f>
-        <v>41862</v>
+        <f>DATE(2014,8,22)</f>
+        <v>41873</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
-        <v>69227.75</v>
-      </c>
-      <c r="G24" s="2">
-        <f>SUM(F24)</f>
-        <v>69227.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69495.48</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>69495.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f>DATE(2014,8,27)</f>
+        <v>41878</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>-34981.82</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>-34981.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f>DATE(2014,9,2)</f>
+        <v>41884</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>35551.4</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>35551.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f>DATE(2014,9,4)</f>
+        <v>41886</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>-50350</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>-50350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,9 +1071,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">

--- a/report/bond/bond.xlsx
+++ b/report/bond/bond.xlsx
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,12 +427,12 @@
         <v>748.58999999999651</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G25:G27)</f>
-        <v>-49780.42</v>
+        <f>SUM(G25:G29)</f>
+        <v>785.04000000000815</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(H4:H26)</f>
-        <v>35548.13999999997</v>
+        <f>SUM(H4:H29)</f>
+        <v>35763.599999999977</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -456,13 +456,13 @@
         <f>XIRR(F22:F24,A22:A24)</f>
         <v>0.1852908194065094</v>
       </c>
-      <c r="G3" s="3" t="e">
-        <f>XIRR(G25:G27,A25:A27)</f>
-        <v>#NUM!</v>
+      <c r="G3" s="3">
+        <f>XIRR(G25:G29,A25:A29)</f>
+        <v>0.30266066193580621</v>
       </c>
       <c r="H3" s="3">
-        <f>XIRR(H4:H26,A4:A26)</f>
-        <v>0.18973227143287655</v>
+        <f>XIRR(H4:H29,A4:A29)</f>
+        <v>0.18883574604988096</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H27" si="0">SUM(B5:G5)</f>
+        <f t="shared" ref="H5:H29" si="0">SUM(B5:G5)</f>
         <v>-172371.20000000001</v>
       </c>
     </row>
@@ -876,11 +876,11 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>35551.4</v>
+        <v>35551.410000000003</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>35551.4</v>
+        <v>35551.410000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -894,30 +894,48 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>-50350</v>
+        <v>-52564.71</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>-50350</v>
+        <v>-52564.71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f>DATE(2014,9,9)</f>
+        <v>41891</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>-49605.21</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>-49605.21</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <f>DATE(2014,9,15)</f>
+        <v>41897</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>102385.37</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>102385.37</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>

--- a/report/bond/bond.xlsx
+++ b/report/bond/bond.xlsx
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,12 +427,12 @@
         <v>748.58999999999651</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G25:G29)</f>
-        <v>785.04000000000815</v>
+        <f>SUM(G25:G31)</f>
+        <v>1041.8900000000067</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(H4:H29)</f>
-        <v>35763.599999999977</v>
+        <f>SUM(H4:H31)</f>
+        <v>36020.449999999975</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -457,12 +457,12 @@
         <v>0.1852908194065094</v>
       </c>
       <c r="G3" s="3">
-        <f>XIRR(G25:G29,A25:A29)</f>
-        <v>0.30266066193580621</v>
+        <f>XIRR(G25:G31,A25:A31)</f>
+        <v>0.41557896733283994</v>
       </c>
       <c r="H3" s="3">
-        <f>XIRR(H4:H29,A4:A29)</f>
-        <v>0.18883574604988096</v>
+        <f>XIRR(H4:H31,A4:A31)</f>
+        <v>0.18995478749275208</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H29" si="0">SUM(B5:G5)</f>
+        <f t="shared" ref="H5:H31" si="0">SUM(B5:G5)</f>
         <v>-172371.20000000001</v>
       </c>
     </row>
@@ -938,22 +938,40 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <f>DATE(2014,10,20)</f>
+        <v>41932</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>-49990.79</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>-49990.79</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <f>DATE(2014,10,20)</f>
+        <v>41932</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>50247.64</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>50247.64</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
